--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95238E4-76C3-4E05-A466-34ED50DDEC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51727344-BA68-42DA-A9F5-DD8A4556B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فاسمین-کالسیمین‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1400-10-09 (5)</t>
-  </si>
-  <si>
-    <t>1400-11-24 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-21 (11)</t>
-  </si>
-  <si>
-    <t>1401-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-10 (5)</t>
-  </si>
-  <si>
-    <t>1400-11-24 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-10 (6)</t>
+    <t>1401-11-01 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (9)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-08-10 (2)</t>
+    <t>1401-09-15 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2009845</v>
+        <v>7380441</v>
       </c>
       <c r="E11" s="13">
-        <v>4369126</v>
+        <v>12999381</v>
       </c>
       <c r="F11" s="13">
-        <v>7166921</v>
+        <v>12538160</v>
       </c>
       <c r="G11" s="13">
-        <v>3287713</v>
+        <v>10616718</v>
       </c>
       <c r="H11" s="13">
-        <v>5705755</v>
-      </c>
-      <c r="I11" s="13">
-        <v>5830143</v>
-      </c>
-      <c r="J11" s="13">
-        <v>7350254</v>
-      </c>
-      <c r="K11" s="13">
-        <v>13029568</v>
-      </c>
-      <c r="L11" s="13">
-        <v>12538160</v>
-      </c>
-      <c r="M11" s="13">
-        <v>10193312</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>16744190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1014245</v>
+        <v>-2290686</v>
       </c>
       <c r="E12" s="11">
-        <v>-1474985</v>
+        <v>-7319414</v>
       </c>
       <c r="F12" s="11">
-        <v>-2269924</v>
+        <v>-5595848</v>
       </c>
       <c r="G12" s="11">
-        <v>-1703169</v>
+        <v>-5963642</v>
       </c>
       <c r="H12" s="11">
-        <v>-2071476</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-2513373</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-2290686</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-7319414</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-5595848</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-6626642</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-10836588</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>995600</v>
+        <v>5089755</v>
       </c>
       <c r="E13" s="15">
-        <v>2894141</v>
+        <v>5679967</v>
       </c>
       <c r="F13" s="15">
-        <v>4896997</v>
+        <v>6942312</v>
       </c>
       <c r="G13" s="15">
-        <v>1584544</v>
+        <v>4653076</v>
       </c>
       <c r="H13" s="15">
-        <v>3634279</v>
-      </c>
-      <c r="I13" s="15">
-        <v>3316770</v>
-      </c>
-      <c r="J13" s="15">
-        <v>5059568</v>
-      </c>
-      <c r="K13" s="15">
-        <v>5710154</v>
-      </c>
-      <c r="L13" s="15">
-        <v>6942312</v>
-      </c>
-      <c r="M13" s="15">
-        <v>3566670</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5907602</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-48729</v>
+        <v>-71789</v>
       </c>
       <c r="E14" s="11">
-        <v>-169483</v>
+        <v>-1152425</v>
       </c>
       <c r="F14" s="11">
-        <v>-206784</v>
+        <v>-685922</v>
       </c>
       <c r="G14" s="11">
-        <v>-242555</v>
+        <v>-247773</v>
       </c>
       <c r="H14" s="11">
-        <v>-325171</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-412071</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-71789</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-1152425</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-685922</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-297405</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-325689</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>206463</v>
+        <v>528832</v>
       </c>
       <c r="E16" s="11">
-        <v>904670</v>
+        <v>5543096</v>
       </c>
       <c r="F16" s="11">
-        <v>-83613</v>
+        <v>-5960</v>
       </c>
       <c r="G16" s="11">
-        <v>1776268</v>
+        <v>1901730</v>
       </c>
       <c r="H16" s="11">
-        <v>31440</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1180597</v>
-      </c>
-      <c r="J16" s="11">
-        <v>528832</v>
-      </c>
-      <c r="K16" s="11">
-        <v>5543096</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-5960</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1866851</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>504399</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1153334</v>
+        <v>5546798</v>
       </c>
       <c r="E17" s="15">
-        <v>3629328</v>
+        <v>10070638</v>
       </c>
       <c r="F17" s="15">
-        <v>4606600</v>
+        <v>6250430</v>
       </c>
       <c r="G17" s="15">
-        <v>3118257</v>
+        <v>6307033</v>
       </c>
       <c r="H17" s="15">
-        <v>3340548</v>
-      </c>
-      <c r="I17" s="15">
-        <v>4085296</v>
-      </c>
-      <c r="J17" s="15">
-        <v>5516611</v>
-      </c>
-      <c r="K17" s="15">
-        <v>10100825</v>
-      </c>
-      <c r="L17" s="15">
-        <v>6250430</v>
-      </c>
-      <c r="M17" s="15">
-        <v>5136116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6086312</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-35441</v>
+        <v>-88361</v>
       </c>
       <c r="E18" s="11">
-        <v>-41858</v>
+        <v>452</v>
       </c>
       <c r="F18" s="11">
-        <v>-26275</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>-51686</v>
+        <v>-459</v>
       </c>
       <c r="H18" s="11">
-        <v>-12094</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-46126</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-88361</v>
-      </c>
-      <c r="K18" s="11">
-        <v>452</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>26996</v>
+        <v>43298</v>
       </c>
       <c r="E19" s="13">
-        <v>42922</v>
+        <v>-123571</v>
       </c>
       <c r="F19" s="13">
-        <v>76131</v>
+        <v>931127</v>
       </c>
       <c r="G19" s="13">
-        <v>76490</v>
+        <v>-734845</v>
       </c>
       <c r="H19" s="13">
-        <v>36688</v>
-      </c>
-      <c r="I19" s="13">
-        <v>43585</v>
-      </c>
-      <c r="J19" s="13">
-        <v>43298</v>
-      </c>
-      <c r="K19" s="13">
-        <v>94042</v>
-      </c>
-      <c r="L19" s="13">
-        <v>931127</v>
-      </c>
-      <c r="M19" s="13">
-        <v>-675790</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>99422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1144889</v>
+        <v>5501735</v>
       </c>
       <c r="E20" s="17">
-        <v>3630392</v>
+        <v>9947519</v>
       </c>
       <c r="F20" s="17">
-        <v>4656456</v>
+        <v>7181557</v>
       </c>
       <c r="G20" s="17">
-        <v>3143061</v>
+        <v>5571729</v>
       </c>
       <c r="H20" s="17">
-        <v>3365142</v>
-      </c>
-      <c r="I20" s="17">
-        <v>4082755</v>
-      </c>
-      <c r="J20" s="17">
-        <v>5471548</v>
-      </c>
-      <c r="K20" s="17">
-        <v>10195319</v>
-      </c>
-      <c r="L20" s="17">
-        <v>7181557</v>
-      </c>
-      <c r="M20" s="17">
-        <v>4460326</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6185506</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-49054</v>
+        <v>-314712</v>
       </c>
       <c r="E21" s="13">
-        <v>-271472</v>
+        <v>151105</v>
       </c>
       <c r="F21" s="13">
-        <v>-180163</v>
+        <v>-198276</v>
       </c>
       <c r="G21" s="13">
-        <v>-19099</v>
+        <v>-968705</v>
       </c>
       <c r="H21" s="13">
-        <v>-265375</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-137522</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-314712</v>
-      </c>
-      <c r="K21" s="13">
-        <v>151105</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-198276</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-956776</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-371103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1095835</v>
+        <v>5187023</v>
       </c>
       <c r="E22" s="17">
-        <v>3358920</v>
+        <v>10098624</v>
       </c>
       <c r="F22" s="17">
-        <v>4476293</v>
+        <v>6983281</v>
       </c>
       <c r="G22" s="17">
-        <v>3123962</v>
+        <v>4603024</v>
       </c>
       <c r="H22" s="17">
-        <v>3099767</v>
-      </c>
-      <c r="I22" s="17">
-        <v>3945233</v>
-      </c>
-      <c r="J22" s="17">
-        <v>5156836</v>
-      </c>
-      <c r="K22" s="17">
-        <v>10346424</v>
-      </c>
-      <c r="L22" s="17">
-        <v>6983281</v>
-      </c>
-      <c r="M22" s="17">
-        <v>3503550</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5814403</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,97 +992,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1095835</v>
+        <v>5187023</v>
       </c>
       <c r="E24" s="17">
-        <v>3358920</v>
+        <v>10098624</v>
       </c>
       <c r="F24" s="17">
-        <v>4476293</v>
+        <v>6983281</v>
       </c>
       <c r="G24" s="17">
-        <v>3123962</v>
+        <v>4603024</v>
       </c>
       <c r="H24" s="17">
-        <v>3099767</v>
-      </c>
-      <c r="I24" s="17">
-        <v>3945233</v>
-      </c>
-      <c r="J24" s="17">
-        <v>5156836</v>
-      </c>
-      <c r="K24" s="17">
-        <v>10346424</v>
-      </c>
-      <c r="L24" s="17">
-        <v>6983281</v>
-      </c>
-      <c r="M24" s="17">
-        <v>3503550</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5814403</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>183</v>
+        <v>865</v>
       </c>
       <c r="E25" s="13">
-        <v>560</v>
+        <v>1683</v>
       </c>
       <c r="F25" s="13">
-        <v>746</v>
+        <v>1164</v>
       </c>
       <c r="G25" s="13">
-        <v>521</v>
+        <v>767</v>
       </c>
       <c r="H25" s="13">
-        <v>517</v>
-      </c>
-      <c r="I25" s="13">
-        <v>658</v>
-      </c>
-      <c r="J25" s="13">
-        <v>859</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1724</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1164</v>
-      </c>
-      <c r="M25" s="13">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1382,59 +1055,29 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-      <c r="I26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>183</v>
+        <v>865</v>
       </c>
       <c r="E27" s="13">
-        <v>560</v>
+        <v>1683</v>
       </c>
       <c r="F27" s="13">
-        <v>746</v>
+        <v>1164</v>
       </c>
       <c r="G27" s="13">
-        <v>521</v>
+        <v>767</v>
       </c>
       <c r="H27" s="13">
-        <v>517</v>
-      </c>
-      <c r="I27" s="13">
-        <v>658</v>
-      </c>
-      <c r="J27" s="13">
-        <v>859</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1724</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1164</v>
-      </c>
-      <c r="M27" s="13">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51727344-BA68-42DA-A9F5-DD8A4556B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +36,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +67,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-10-09 (5)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-21 (11)</t>
+  </si>
+  <si>
+    <t>1401-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-15 (6)</t>
   </si>
   <si>
     <t>1401-11-01 (4)</t>
@@ -124,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +334,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -317,7 +346,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -364,23 +393,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -416,23 +428,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,21 +579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +603,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +619,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +635,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +649,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +665,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +681,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +695,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +721,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +781,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>4369126</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7166921</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3287713</v>
+      </c>
+      <c r="G11" s="13">
+        <v>5705755</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5830143</v>
+      </c>
+      <c r="I11" s="13">
         <v>7380441</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>12999381</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>12538160</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>10616718</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>16744190</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1474985</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-2269924</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1703169</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-2071476</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-2513373</v>
+      </c>
+      <c r="I12" s="11">
         <v>-2290686</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-7319414</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-5595848</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-5963642</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-10836588</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>2894141</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4896997</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1584544</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3634279</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3316770</v>
+      </c>
+      <c r="I13" s="15">
         <v>5089755</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>5679967</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>6942312</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>4653076</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>5907602</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-169483</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-206784</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-242555</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-325171</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-412071</v>
+      </c>
+      <c r="I14" s="11">
         <v>-71789</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-1152425</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-685922</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-247773</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-325689</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +951,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>904670</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-83613</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1776268</v>
+      </c>
+      <c r="G16" s="11">
+        <v>31440</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1180597</v>
+      </c>
+      <c r="I16" s="11">
         <v>528832</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>5543096</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-5960</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>1901730</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>504399</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>3629328</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4606600</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3118257</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3340548</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4085296</v>
+      </c>
+      <c r="I17" s="15">
         <v>5546798</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>10070638</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>6250430</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>6307033</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>6086312</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-41858</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-26275</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-51686</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-12094</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-46126</v>
+      </c>
+      <c r="I18" s="11">
         <v>-88361</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>452</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
         <v>-459</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-228</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>42922</v>
+      </c>
+      <c r="E19" s="13">
+        <v>76131</v>
+      </c>
+      <c r="F19" s="13">
+        <v>76490</v>
+      </c>
+      <c r="G19" s="13">
+        <v>36688</v>
+      </c>
+      <c r="H19" s="13">
+        <v>43585</v>
+      </c>
+      <c r="I19" s="13">
         <v>43298</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>-123571</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>931127</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>-734845</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>99422</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>3630392</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4656456</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3143061</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3365142</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4082755</v>
+      </c>
+      <c r="I20" s="17">
         <v>5501735</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>9947519</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>7181557</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>5571729</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>6185506</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-271472</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-180163</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-19099</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-265375</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-137522</v>
+      </c>
+      <c r="I21" s="13">
         <v>-314712</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>151105</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-198276</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-968705</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-371103</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>3358920</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4476293</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3123962</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3099767</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3945233</v>
+      </c>
+      <c r="I22" s="17">
         <v>5187023</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>10098624</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>6983281</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>4603024</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>5814403</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1239,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>3358920</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4476293</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3123962</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3099767</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3945233</v>
+      </c>
+      <c r="I24" s="17">
         <v>5187023</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>10098624</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>6983281</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>4603024</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>5814403</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>560</v>
+      </c>
+      <c r="E25" s="13">
+        <v>746</v>
+      </c>
+      <c r="F25" s="13">
+        <v>521</v>
+      </c>
+      <c r="G25" s="13">
+        <v>517</v>
+      </c>
+      <c r="H25" s="13">
+        <v>658</v>
+      </c>
+      <c r="I25" s="13">
         <v>865</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>1683</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1164</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>767</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>969</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1055,29 +1347,59 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>560</v>
+      </c>
+      <c r="E27" s="13">
+        <v>746</v>
+      </c>
+      <c r="F27" s="13">
+        <v>521</v>
+      </c>
+      <c r="G27" s="13">
+        <v>517</v>
+      </c>
+      <c r="H27" s="13">
+        <v>658</v>
+      </c>
+      <c r="I27" s="13">
         <v>865</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>1683</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1164</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>767</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>969</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1407,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51727344-BA68-42DA-A9F5-DD8A4556B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08672ECD-3C33-4C32-8EAA-6A3AD7D18C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-10-09 (5)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-21 (11)</t>
+  </si>
+  <si>
+    <t>1401-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-15 (6)</t>
   </si>
   <si>
     <t>1401-11-01 (4)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>4369126</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7166921</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3287713</v>
+      </c>
+      <c r="G11" s="13">
+        <v>5705755</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5830143</v>
+      </c>
+      <c r="I11" s="13">
         <v>7380441</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>12999381</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>12538160</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>10616718</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>16744190</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1474985</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-2269924</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1703169</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-2071476</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-2513373</v>
+      </c>
+      <c r="I12" s="11">
         <v>-2290686</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-7319414</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-5595848</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-5963642</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-10836588</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>2894141</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4896997</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1584544</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3634279</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3316770</v>
+      </c>
+      <c r="I13" s="15">
         <v>5089755</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>5679967</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>6942312</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>4653076</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>5907602</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-169483</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-206784</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-242555</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-325171</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-412071</v>
+      </c>
+      <c r="I14" s="11">
         <v>-71789</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-1152425</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-685922</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-247773</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-325689</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>904670</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-83613</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1776268</v>
+      </c>
+      <c r="G16" s="11">
+        <v>31440</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1180597</v>
+      </c>
+      <c r="I16" s="11">
         <v>528832</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>5543096</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-5960</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>1901730</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>504399</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>3629328</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4606600</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3118257</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3340548</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4085296</v>
+      </c>
+      <c r="I17" s="15">
         <v>5546798</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>10070638</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>6250430</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>6307033</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>6086312</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-41858</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-26275</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-51686</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-12094</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-46126</v>
+      </c>
+      <c r="I18" s="11">
         <v>-88361</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>452</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
         <v>-459</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-228</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>42922</v>
+      </c>
+      <c r="E19" s="13">
+        <v>76131</v>
+      </c>
+      <c r="F19" s="13">
+        <v>76490</v>
+      </c>
+      <c r="G19" s="13">
+        <v>36688</v>
+      </c>
+      <c r="H19" s="13">
+        <v>43585</v>
+      </c>
+      <c r="I19" s="13">
         <v>43298</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>-123571</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>931127</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>-734845</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>99422</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>3630392</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4656456</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3143061</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3365142</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4082755</v>
+      </c>
+      <c r="I20" s="17">
         <v>5501735</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>9947519</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>7181557</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>5571729</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>6185506</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-271472</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-180163</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-19099</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-265375</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-137522</v>
+      </c>
+      <c r="I21" s="13">
         <v>-314712</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>151105</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-198276</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-968705</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-371103</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>3358920</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4476293</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3123962</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3099767</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3945233</v>
+      </c>
+      <c r="I22" s="17">
         <v>5187023</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>10098624</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>6983281</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>4603024</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>5814403</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>3358920</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4476293</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3123962</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3099767</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3945233</v>
+      </c>
+      <c r="I24" s="17">
         <v>5187023</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>10098624</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>6983281</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>4603024</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>5814403</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>560</v>
+      </c>
+      <c r="E25" s="13">
+        <v>746</v>
+      </c>
+      <c r="F25" s="13">
+        <v>521</v>
+      </c>
+      <c r="G25" s="13">
+        <v>517</v>
+      </c>
+      <c r="H25" s="13">
+        <v>658</v>
+      </c>
+      <c r="I25" s="13">
         <v>865</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>1683</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1164</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>767</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>969</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>560</v>
+      </c>
+      <c r="E27" s="13">
+        <v>746</v>
+      </c>
+      <c r="F27" s="13">
+        <v>521</v>
+      </c>
+      <c r="G27" s="13">
+        <v>517</v>
+      </c>
+      <c r="H27" s="13">
+        <v>658</v>
+      </c>
+      <c r="I27" s="13">
         <v>865</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>1683</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1164</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>767</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>969</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08672ECD-3C33-4C32-8EAA-6A3AD7D18C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,10 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1395,7 +1396,8 @@
         <v>6000000</v>
       </c>
       <c r="M26" s="11">
-        <v>6000000</v>
+        <f>L26*4</f>
+        <v>24000000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897BDD0-691B-4B74-B66C-8CA69CA2DD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,14 +614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -631,7 +630,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -859,7 +858,7 @@
         <v>16744190</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -895,7 +894,7 @@
         <v>-10836588</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -931,7 +930,7 @@
         <v>5907602</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -967,7 +966,7 @@
         <v>-325689</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>504399</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>6086312</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>-228</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>99422</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>6185506</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>-371103</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>5814403</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>5814403</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1396,47 +1395,46 @@
         <v>6000000</v>
       </c>
       <c r="M26" s="11">
-        <f>L26*4</f>
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>560</v>
+        <v>140</v>
       </c>
       <c r="E27" s="13">
-        <v>746</v>
+        <v>187</v>
       </c>
       <c r="F27" s="13">
-        <v>521</v>
+        <v>130</v>
       </c>
       <c r="G27" s="13">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="H27" s="13">
-        <v>658</v>
+        <v>164</v>
       </c>
       <c r="I27" s="13">
-        <v>865</v>
+        <v>216</v>
       </c>
       <c r="J27" s="13">
-        <v>1683</v>
+        <v>421</v>
       </c>
       <c r="K27" s="13">
-        <v>1164</v>
+        <v>291</v>
       </c>
       <c r="L27" s="13">
-        <v>767</v>
+        <v>192</v>
       </c>
       <c r="M27" s="13">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
+++ b/database/industries/felezat/fasmin/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\felezat\fasmin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897BDD0-691B-4B74-B66C-8CA69CA2DD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69816072-5344-411A-95F1-F8163D9094D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>فاسمین-کالسیمین‌</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-05-16 (9)</t>
+  </si>
+  <si>
+    <t>1399-05-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-15 (4)</t>
+  </si>
+  <si>
+    <t>1399-11-02 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-05 (9)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (2)</t>
+  </si>
+  <si>
     <t>1400-10-09 (5)</t>
   </si>
   <si>
@@ -88,18 +139,27 @@
     <t>1401-11-01 (4)</t>
   </si>
   <si>
-    <t>1401-11-01 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-29</t>
-  </si>
-  <si>
-    <t>1401-09-15 (3)</t>
+    <t>1402-04-28 (12)</t>
+  </si>
+  <si>
+    <t>1402-05-03 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-03 (4)</t>
   </si>
   <si>
     <t>1401-11-01 (2)</t>
   </si>
   <si>
+    <t>1402-08-03 (5)</t>
+  </si>
+  <si>
+    <t>1402-05-03</t>
+  </si>
+  <si>
+    <t>1402-08-03</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -121,13 +181,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,22 +675,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -643,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>420853</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2441978</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3737399</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-405759</v>
+      </c>
+      <c r="H11" s="13">
+        <v>556899</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3297360</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2009845</v>
+      </c>
+      <c r="K11" s="13">
         <v>4369126</v>
       </c>
-      <c r="E11" s="13">
+      <c r="L11" s="13">
         <v>7166921</v>
       </c>
-      <c r="F11" s="13">
+      <c r="M11" s="13">
         <v>3287713</v>
       </c>
-      <c r="G11" s="13">
+      <c r="N11" s="13">
         <v>5705755</v>
       </c>
-      <c r="H11" s="13">
+      <c r="O11" s="13">
         <v>5830143</v>
       </c>
-      <c r="I11" s="13">
+      <c r="P11" s="13">
         <v>7380441</v>
       </c>
-      <c r="J11" s="13">
+      <c r="Q11" s="13">
         <v>12999381</v>
       </c>
-      <c r="K11" s="13">
+      <c r="R11" s="13">
         <v>12538160</v>
       </c>
-      <c r="L11" s="13">
+      <c r="S11" s="13">
         <v>10616718</v>
       </c>
-      <c r="M11" s="13">
+      <c r="T11" s="13">
         <v>16744190</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U11" s="13">
+        <v>14237352</v>
+      </c>
+      <c r="V11" s="13">
+        <v>10392964</v>
+      </c>
+      <c r="W11" s="13">
+        <v>25354611</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-252653</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-730511</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1559541</v>
+      </c>
+      <c r="G12" s="11">
+        <v>253018</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-297033</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-2057251</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-1014245</v>
+      </c>
+      <c r="K12" s="11">
         <v>-1474985</v>
       </c>
-      <c r="E12" s="11">
+      <c r="L12" s="11">
         <v>-2269924</v>
       </c>
-      <c r="F12" s="11">
+      <c r="M12" s="11">
         <v>-1703169</v>
       </c>
-      <c r="G12" s="11">
+      <c r="N12" s="11">
         <v>-2071476</v>
       </c>
-      <c r="H12" s="11">
+      <c r="O12" s="11">
         <v>-2513373</v>
       </c>
-      <c r="I12" s="11">
+      <c r="P12" s="11">
         <v>-2290686</v>
       </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
         <v>-7319414</v>
       </c>
-      <c r="K12" s="11">
+      <c r="R12" s="11">
         <v>-5595848</v>
       </c>
-      <c r="L12" s="11">
+      <c r="S12" s="11">
         <v>-5963642</v>
       </c>
-      <c r="M12" s="11">
+      <c r="T12" s="11">
         <v>-10836588</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-7437017</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-6016800</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-16850346</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>168200</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1711467</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2177858</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-152741</v>
+      </c>
+      <c r="H13" s="15">
+        <v>259866</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1240109</v>
+      </c>
+      <c r="J13" s="15">
+        <v>995600</v>
+      </c>
+      <c r="K13" s="15">
         <v>2894141</v>
       </c>
-      <c r="E13" s="15">
+      <c r="L13" s="15">
         <v>4896997</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>1584544</v>
       </c>
-      <c r="G13" s="15">
+      <c r="N13" s="15">
         <v>3634279</v>
       </c>
-      <c r="H13" s="15">
+      <c r="O13" s="15">
         <v>3316770</v>
       </c>
-      <c r="I13" s="15">
+      <c r="P13" s="15">
         <v>5089755</v>
       </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
         <v>5679967</v>
       </c>
-      <c r="K13" s="15">
+      <c r="R13" s="15">
         <v>6942312</v>
       </c>
-      <c r="L13" s="15">
+      <c r="S13" s="15">
         <v>4653076</v>
       </c>
-      <c r="M13" s="15">
+      <c r="T13" s="15">
         <v>5907602</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>6800335</v>
+      </c>
+      <c r="V13" s="15">
+        <v>4376164</v>
+      </c>
+      <c r="W13" s="15">
+        <v>8504265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-32289</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-52686</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-59868</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-220470</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-27652</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-129228</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-48729</v>
+      </c>
+      <c r="K14" s="11">
         <v>-169483</v>
       </c>
-      <c r="E14" s="11">
+      <c r="L14" s="11">
         <v>-206784</v>
       </c>
-      <c r="F14" s="11">
+      <c r="M14" s="11">
         <v>-242555</v>
       </c>
-      <c r="G14" s="11">
+      <c r="N14" s="11">
         <v>-325171</v>
       </c>
-      <c r="H14" s="11">
+      <c r="O14" s="11">
         <v>-412071</v>
       </c>
-      <c r="I14" s="11">
+      <c r="P14" s="11">
         <v>-71789</v>
       </c>
-      <c r="J14" s="11">
+      <c r="Q14" s="11">
         <v>-1152425</v>
       </c>
-      <c r="K14" s="11">
+      <c r="R14" s="11">
         <v>-685922</v>
       </c>
-      <c r="L14" s="11">
+      <c r="S14" s="11">
         <v>-247773</v>
       </c>
-      <c r="M14" s="11">
+      <c r="T14" s="11">
         <v>-325689</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-919751</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-984298</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-248224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1001,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>115415</v>
+      </c>
+      <c r="E16" s="11">
+        <v>266054</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-48793</v>
+      </c>
+      <c r="G16" s="11">
+        <v>500769</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-25746</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1080529</v>
+      </c>
+      <c r="J16" s="11">
+        <v>206463</v>
+      </c>
+      <c r="K16" s="11">
         <v>904670</v>
       </c>
-      <c r="E16" s="11">
+      <c r="L16" s="11">
         <v>-83613</v>
       </c>
-      <c r="F16" s="11">
+      <c r="M16" s="11">
         <v>1776268</v>
       </c>
-      <c r="G16" s="11">
+      <c r="N16" s="11">
         <v>31440</v>
       </c>
-      <c r="H16" s="11">
+      <c r="O16" s="11">
         <v>1180597</v>
       </c>
-      <c r="I16" s="11">
+      <c r="P16" s="11">
         <v>528832</v>
       </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
         <v>5543096</v>
       </c>
-      <c r="K16" s="11">
+      <c r="R16" s="11">
         <v>-5960</v>
       </c>
-      <c r="L16" s="11">
+      <c r="S16" s="11">
         <v>1901730</v>
       </c>
-      <c r="M16" s="11">
+      <c r="T16" s="11">
         <v>504399</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>6221639</v>
+      </c>
+      <c r="V16" s="11">
+        <v>1236547</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-1135695</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>251326</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1924835</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2069197</v>
+      </c>
+      <c r="G17" s="15">
+        <v>127558</v>
+      </c>
+      <c r="H17" s="15">
+        <v>206468</v>
+      </c>
+      <c r="I17" s="15">
+        <v>2191410</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1153334</v>
+      </c>
+      <c r="K17" s="15">
         <v>3629328</v>
       </c>
-      <c r="E17" s="15">
+      <c r="L17" s="15">
         <v>4606600</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>3118257</v>
       </c>
-      <c r="G17" s="15">
+      <c r="N17" s="15">
         <v>3340548</v>
       </c>
-      <c r="H17" s="15">
+      <c r="O17" s="15">
         <v>4085296</v>
       </c>
-      <c r="I17" s="15">
+      <c r="P17" s="15">
         <v>5546798</v>
       </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
         <v>10070638</v>
       </c>
-      <c r="K17" s="15">
+      <c r="R17" s="15">
         <v>6250430</v>
       </c>
-      <c r="L17" s="15">
+      <c r="S17" s="15">
         <v>6307033</v>
       </c>
-      <c r="M17" s="15">
+      <c r="T17" s="15">
         <v>6086312</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>12102223</v>
+      </c>
+      <c r="V17" s="15">
+        <v>4628413</v>
+      </c>
+      <c r="W17" s="15">
+        <v>7120346</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-32395</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-33949</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-31826</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-36574</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-45245</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-40456</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-35441</v>
+      </c>
+      <c r="K18" s="11">
         <v>-41858</v>
       </c>
-      <c r="E18" s="11">
+      <c r="L18" s="11">
         <v>-26275</v>
       </c>
-      <c r="F18" s="11">
+      <c r="M18" s="11">
         <v>-51686</v>
       </c>
-      <c r="G18" s="11">
+      <c r="N18" s="11">
         <v>-12094</v>
       </c>
-      <c r="H18" s="11">
+      <c r="O18" s="11">
         <v>-46126</v>
       </c>
-      <c r="I18" s="11">
+      <c r="P18" s="11">
         <v>-88361</v>
       </c>
-      <c r="J18" s="11">
+      <c r="Q18" s="11">
         <v>452</v>
       </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
         <v>-459</v>
       </c>
-      <c r="M18" s="11">
+      <c r="T18" s="11">
         <v>-228</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>228</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-20935</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>17768</v>
+      </c>
+      <c r="E19" s="13">
+        <v>16101</v>
+      </c>
+      <c r="F19" s="13">
+        <v>24349</v>
+      </c>
+      <c r="G19" s="13">
+        <v>333736</v>
+      </c>
+      <c r="H19" s="13">
+        <v>26483</v>
+      </c>
+      <c r="I19" s="13">
+        <v>41021</v>
+      </c>
+      <c r="J19" s="13">
+        <v>26996</v>
+      </c>
+      <c r="K19" s="13">
         <v>42922</v>
       </c>
-      <c r="E19" s="13">
+      <c r="L19" s="13">
         <v>76131</v>
       </c>
-      <c r="F19" s="13">
+      <c r="M19" s="13">
         <v>76490</v>
       </c>
-      <c r="G19" s="13">
+      <c r="N19" s="13">
         <v>36688</v>
       </c>
-      <c r="H19" s="13">
+      <c r="O19" s="13">
         <v>43585</v>
       </c>
-      <c r="I19" s="13">
+      <c r="P19" s="13">
         <v>43298</v>
       </c>
-      <c r="J19" s="13">
-        <v>-123571</v>
-      </c>
-      <c r="K19" s="13">
-        <v>931127</v>
-      </c>
-      <c r="L19" s="13">
-        <v>-734845</v>
-      </c>
-      <c r="M19" s="13">
+      <c r="Q19" s="13">
+        <v>94042</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>196282</v>
+      </c>
+      <c r="T19" s="13">
         <v>99422</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>-1422108</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>73622</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>236699</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1906987</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2061720</v>
+      </c>
+      <c r="G20" s="17">
+        <v>424720</v>
+      </c>
+      <c r="H20" s="17">
+        <v>187706</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2191975</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1144889</v>
+      </c>
+      <c r="K20" s="17">
         <v>3630392</v>
       </c>
-      <c r="E20" s="17">
+      <c r="L20" s="17">
         <v>4656456</v>
       </c>
-      <c r="F20" s="17">
+      <c r="M20" s="17">
         <v>3143061</v>
       </c>
-      <c r="G20" s="17">
+      <c r="N20" s="17">
         <v>3365142</v>
       </c>
-      <c r="H20" s="17">
+      <c r="O20" s="17">
         <v>4082755</v>
       </c>
-      <c r="I20" s="17">
+      <c r="P20" s="17">
         <v>5501735</v>
       </c>
-      <c r="J20" s="17">
-        <v>9947519</v>
-      </c>
-      <c r="K20" s="17">
-        <v>7181557</v>
-      </c>
-      <c r="L20" s="17">
-        <v>5571729</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="Q20" s="17">
+        <v>10165132</v>
+      </c>
+      <c r="R20" s="17">
+        <v>6250430</v>
+      </c>
+      <c r="S20" s="17">
+        <v>6502856</v>
+      </c>
+      <c r="T20" s="17">
         <v>6185506</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>10680343</v>
+      </c>
+      <c r="V20" s="17">
+        <v>4628413</v>
+      </c>
+      <c r="W20" s="17">
+        <v>7173033</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-330551</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-92638</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-11847</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-48919</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-49054</v>
+      </c>
+      <c r="K21" s="13">
         <v>-271472</v>
       </c>
-      <c r="E21" s="13">
+      <c r="L21" s="13">
         <v>-180163</v>
       </c>
-      <c r="F21" s="13">
+      <c r="M21" s="13">
         <v>-19099</v>
       </c>
-      <c r="G21" s="13">
+      <c r="N21" s="13">
         <v>-265375</v>
       </c>
-      <c r="H21" s="13">
+      <c r="O21" s="13">
         <v>-137522</v>
       </c>
-      <c r="I21" s="13">
+      <c r="P21" s="13">
         <v>-314712</v>
       </c>
-      <c r="J21" s="13">
+      <c r="Q21" s="13">
         <v>151105</v>
       </c>
-      <c r="K21" s="13">
+      <c r="R21" s="13">
         <v>-198276</v>
       </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
         <v>-968705</v>
       </c>
-      <c r="M21" s="13">
+      <c r="T21" s="13">
         <v>-371103</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>-1195439</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-526467</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-1597443</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>314479</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1576436</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2061720</v>
+      </c>
+      <c r="G22" s="17">
+        <v>332082</v>
+      </c>
+      <c r="H22" s="17">
+        <v>175859</v>
+      </c>
+      <c r="I22" s="17">
+        <v>2143056</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1095835</v>
+      </c>
+      <c r="K22" s="17">
         <v>3358920</v>
       </c>
-      <c r="E22" s="17">
+      <c r="L22" s="17">
         <v>4476293</v>
       </c>
-      <c r="F22" s="17">
+      <c r="M22" s="17">
         <v>3123962</v>
       </c>
-      <c r="G22" s="17">
+      <c r="N22" s="17">
         <v>3099767</v>
       </c>
-      <c r="H22" s="17">
+      <c r="O22" s="17">
         <v>3945233</v>
       </c>
-      <c r="I22" s="17">
+      <c r="P22" s="17">
         <v>5187023</v>
       </c>
-      <c r="J22" s="17">
-        <v>10098624</v>
-      </c>
-      <c r="K22" s="17">
-        <v>6983281</v>
-      </c>
-      <c r="L22" s="17">
-        <v>4603024</v>
-      </c>
-      <c r="M22" s="17">
+      <c r="Q22" s="17">
+        <v>10316237</v>
+      </c>
+      <c r="R22" s="17">
+        <v>6052154</v>
+      </c>
+      <c r="S22" s="17">
+        <v>5534151</v>
+      </c>
+      <c r="T22" s="17">
         <v>5814403</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>9484904</v>
+      </c>
+      <c r="V22" s="17">
+        <v>4101946</v>
+      </c>
+      <c r="W22" s="17">
+        <v>5575590</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1289,92 +1855,182 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>314479</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1576436</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2061720</v>
+      </c>
+      <c r="G24" s="17">
+        <v>332082</v>
+      </c>
+      <c r="H24" s="17">
+        <v>175859</v>
+      </c>
+      <c r="I24" s="17">
+        <v>2143056</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1095835</v>
+      </c>
+      <c r="K24" s="17">
         <v>3358920</v>
       </c>
-      <c r="E24" s="17">
+      <c r="L24" s="17">
         <v>4476293</v>
       </c>
-      <c r="F24" s="17">
+      <c r="M24" s="17">
         <v>3123962</v>
       </c>
-      <c r="G24" s="17">
+      <c r="N24" s="17">
         <v>3099767</v>
       </c>
-      <c r="H24" s="17">
+      <c r="O24" s="17">
         <v>3945233</v>
       </c>
-      <c r="I24" s="17">
+      <c r="P24" s="17">
         <v>5187023</v>
       </c>
-      <c r="J24" s="17">
-        <v>10098624</v>
-      </c>
-      <c r="K24" s="17">
-        <v>6983281</v>
-      </c>
-      <c r="L24" s="17">
-        <v>4603024</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="Q24" s="17">
+        <v>10316237</v>
+      </c>
+      <c r="R24" s="17">
+        <v>6052154</v>
+      </c>
+      <c r="S24" s="17">
+        <v>5534151</v>
+      </c>
+      <c r="T24" s="17">
         <v>5814403</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>9484904</v>
+      </c>
+      <c r="V24" s="17">
+        <v>4101946</v>
+      </c>
+      <c r="W24" s="17">
+        <v>5575590</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>157</v>
+      </c>
+      <c r="E25" s="13">
+        <v>788</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1031</v>
+      </c>
+      <c r="G25" s="13">
+        <v>55</v>
+      </c>
+      <c r="H25" s="13">
+        <v>29</v>
+      </c>
+      <c r="I25" s="13">
+        <v>357</v>
+      </c>
+      <c r="J25" s="13">
+        <v>183</v>
+      </c>
+      <c r="K25" s="13">
         <v>560</v>
       </c>
-      <c r="E25" s="13">
+      <c r="L25" s="13">
         <v>746</v>
       </c>
-      <c r="F25" s="13">
+      <c r="M25" s="13">
         <v>521</v>
       </c>
-      <c r="G25" s="13">
+      <c r="N25" s="13">
         <v>517</v>
       </c>
-      <c r="H25" s="13">
+      <c r="O25" s="13">
         <v>658</v>
       </c>
-      <c r="I25" s="13">
+      <c r="P25" s="13">
         <v>865</v>
       </c>
-      <c r="J25" s="13">
-        <v>1683</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1164</v>
-      </c>
-      <c r="L25" s="13">
-        <v>767</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="Q25" s="13">
+        <v>430</v>
+      </c>
+      <c r="R25" s="13">
+        <v>252</v>
+      </c>
+      <c r="S25" s="13">
+        <v>231</v>
+      </c>
+      <c r="T25" s="13">
         <v>969</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>395</v>
+      </c>
+      <c r="V25" s="13">
+        <v>171</v>
+      </c>
+      <c r="W25" s="13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="E26" s="11">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="F26" s="11">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="G26" s="11">
         <v>6000000</v>
@@ -1397,44 +2053,104 @@
       <c r="M26" s="11">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="P26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="R26" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>24000000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>13</v>
+      </c>
+      <c r="E27" s="13">
+        <v>66</v>
+      </c>
+      <c r="F27" s="13">
+        <v>86</v>
+      </c>
+      <c r="G27" s="13">
+        <v>14</v>
+      </c>
+      <c r="H27" s="13">
+        <v>7</v>
+      </c>
+      <c r="I27" s="13">
+        <v>89</v>
+      </c>
+      <c r="J27" s="13">
+        <v>46</v>
+      </c>
+      <c r="K27" s="13">
         <v>140</v>
       </c>
-      <c r="E27" s="13">
+      <c r="L27" s="13">
         <v>187</v>
       </c>
-      <c r="F27" s="13">
+      <c r="M27" s="13">
         <v>130</v>
       </c>
-      <c r="G27" s="13">
+      <c r="N27" s="13">
         <v>129</v>
       </c>
-      <c r="H27" s="13">
+      <c r="O27" s="13">
         <v>164</v>
       </c>
-      <c r="I27" s="13">
+      <c r="P27" s="13">
         <v>216</v>
       </c>
-      <c r="J27" s="13">
-        <v>421</v>
-      </c>
-      <c r="K27" s="13">
-        <v>291</v>
-      </c>
-      <c r="L27" s="13">
-        <v>192</v>
-      </c>
-      <c r="M27" s="13">
+      <c r="Q27" s="13">
+        <v>430</v>
+      </c>
+      <c r="R27" s="13">
+        <v>252</v>
+      </c>
+      <c r="S27" s="13">
+        <v>231</v>
+      </c>
+      <c r="T27" s="13">
         <v>242</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>395</v>
+      </c>
+      <c r="V27" s="13">
+        <v>171</v>
+      </c>
+      <c r="W27" s="13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1447,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
